--- a/data/trans_orig/P23_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>351427</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>320282</v>
+        <v>322417</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>383887</v>
+        <v>384627</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3409656304397793</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3107483992714686</v>
+        <v>0.3128198156997978</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3724591018112164</v>
+        <v>0.3731773758130721</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>168</v>
@@ -765,19 +765,19 @@
         <v>172167</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149077</v>
+        <v>149866</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>200325</v>
+        <v>198214</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1309139045450405</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1133565868621119</v>
+        <v>0.1139563839802355</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1523254381497661</v>
+        <v>0.1507199178578884</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>512</v>
@@ -786,19 +786,19 @@
         <v>523593</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>483914</v>
+        <v>483703</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>564222</v>
+        <v>564312</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2232051734620822</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2062902599657995</v>
+        <v>0.2062001575845411</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2405252093374369</v>
+        <v>0.2405633056588318</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>679254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>646794</v>
+        <v>646054</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>710399</v>
+        <v>708264</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6590343695602207</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6275408981887836</v>
+        <v>0.6268226241869278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6892516007285314</v>
+        <v>0.6871801843002022</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1123</v>
@@ -836,19 +836,19 @@
         <v>1142946</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1114788</v>
+        <v>1116899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1166036</v>
+        <v>1165247</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8690860954549595</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8476745618502339</v>
+        <v>0.8492800821421115</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.886643413137888</v>
+        <v>0.8860436160197644</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1816</v>
@@ -857,19 +857,19 @@
         <v>1822200</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1781571</v>
+        <v>1781481</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1861879</v>
+        <v>1862090</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7767948265379178</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7594747906625633</v>
+        <v>0.7594366943411682</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7937097400342007</v>
+        <v>0.793799842415459</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>769266</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>728701</v>
+        <v>732033</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>814949</v>
+        <v>811431</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4542697252640036</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4303147267117501</v>
+        <v>0.4322826198757035</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4812466287408964</v>
+        <v>0.4791691392215875</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>523</v>
@@ -982,19 +982,19 @@
         <v>530065</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>492263</v>
+        <v>490120</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>566727</v>
+        <v>571334</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3338627026920065</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3100532247040994</v>
+        <v>0.3087034664627897</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3569547516773981</v>
+        <v>0.359856249103855</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1274</v>
@@ -1003,19 +1003,19 @@
         <v>1299331</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1246703</v>
+        <v>1245774</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1352622</v>
+        <v>1353124</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3960063917827261</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3799665977807742</v>
+        <v>0.3796834825280002</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4122484033110549</v>
+        <v>0.4124011777605516</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>924147</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>878464</v>
+        <v>881982</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>964712</v>
+        <v>961380</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5457302747359963</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5187533712591036</v>
+        <v>0.5208308607784125</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5696852732882499</v>
+        <v>0.5677173801242965</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1031</v>
@@ -1053,19 +1053,19 @@
         <v>1057608</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1020946</v>
+        <v>1016339</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1095410</v>
+        <v>1097553</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6661372973079934</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6430452483226019</v>
+        <v>0.6401437508961449</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6899467752959006</v>
+        <v>0.6912965335372103</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1929</v>
@@ -1074,19 +1074,19 @@
         <v>1981755</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1928464</v>
+        <v>1927962</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2034383</v>
+        <v>2035312</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.603993608217274</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5877515966889452</v>
+        <v>0.5875988222394484</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6200334022192258</v>
+        <v>0.6203165174719999</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>184569</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>163732</v>
+        <v>161825</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>210408</v>
+        <v>206916</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3347227002980517</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2969352602115132</v>
+        <v>0.2934764122285544</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3815825371416018</v>
+        <v>0.3752509583095388</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>123</v>
@@ -1199,19 +1199,19 @@
         <v>127572</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>110680</v>
+        <v>109884</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>149699</v>
+        <v>146720</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2677770364010806</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2323207109764192</v>
+        <v>0.2306482242255664</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3142225912415343</v>
+        <v>0.3079688138206707</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>300</v>
@@ -1220,19 +1220,19 @@
         <v>312141</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>284361</v>
+        <v>282370</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>343148</v>
+        <v>342488</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.303692260556215</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2766640403811587</v>
+        <v>0.2747273720618181</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3338597781102283</v>
+        <v>0.3332180824207977</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>366839</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>341000</v>
+        <v>344492</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>387676</v>
+        <v>389583</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6652772997019483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6184174628583982</v>
+        <v>0.6247490416904612</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7030647397884867</v>
+        <v>0.7065235877714465</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>329</v>
@@ -1270,19 +1270,19 @@
         <v>348840</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>326713</v>
+        <v>329692</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>365732</v>
+        <v>366528</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7322229635989194</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6857774087584657</v>
+        <v>0.6920311861793293</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7676792890235808</v>
+        <v>0.7693517757744336</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>679</v>
@@ -1291,19 +1291,19 @@
         <v>715679</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>684672</v>
+        <v>685332</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>743459</v>
+        <v>745450</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.696307739443785</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6661402218897717</v>
+        <v>0.6667819175792022</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7233359596188413</v>
+        <v>0.7252726279381819</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>1305261</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1247866</v>
+        <v>1252625</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1366133</v>
+        <v>1360075</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3984921505936019</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.380969642021169</v>
+        <v>0.3824223081344389</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4170760450911604</v>
+        <v>0.4152264714443021</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>814</v>
@@ -1416,19 +1416,19 @@
         <v>829803</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>779274</v>
+        <v>778464</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>881915</v>
+        <v>883055</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2455622932328739</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2306090796420667</v>
+        <v>0.2303695009626821</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2609835619689522</v>
+        <v>0.2613209926347024</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2086</v>
@@ -1437,19 +1437,19 @@
         <v>2135065</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2061780</v>
+        <v>2067145</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2223353</v>
+        <v>2212167</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3208357136936954</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3098232429060634</v>
+        <v>0.3106293652586773</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3341027434465323</v>
+        <v>0.3324219212670809</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1970240</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1909368</v>
+        <v>1915426</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2027635</v>
+        <v>2022876</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6015078494063981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5829239549088396</v>
+        <v>0.584773528555698</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6190303579788311</v>
+        <v>0.6175776918655612</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2483</v>
@@ -1487,19 +1487,19 @@
         <v>2549394</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2497282</v>
+        <v>2496142</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2599923</v>
+        <v>2600733</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7544377067671261</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7390164380310477</v>
+        <v>0.7386790073652977</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7693909203579333</v>
+        <v>0.7696304990373179</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4424</v>
@@ -1508,19 +1508,19 @@
         <v>4519633</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4431345</v>
+        <v>4442531</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4592918</v>
+        <v>4587553</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6791642863063047</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6658972565534677</v>
+        <v>0.667578078732919</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6901767570939366</v>
+        <v>0.6893706347413227</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>313663</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>286147</v>
+        <v>282014</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>344257</v>
+        <v>342822</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3218232807253465</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2935916924761395</v>
+        <v>0.289351337922345</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3532135197730304</v>
+        <v>0.3517408780207163</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>183</v>
@@ -1872,19 +1872,19 @@
         <v>196990</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>172544</v>
+        <v>172612</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>222388</v>
+        <v>224518</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.147249373879</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1289760978388887</v>
+        <v>0.1290267582268351</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1662344200641096</v>
+        <v>0.1678269053265371</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>480</v>
@@ -1893,19 +1893,19 @@
         <v>510653</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>469960</v>
+        <v>467974</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>553691</v>
+        <v>551735</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2208284811113271</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.203231324101915</v>
+        <v>0.2023725505706332</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2394400759298828</v>
+        <v>0.2385944587766652</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>660980</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>630386</v>
+        <v>631821</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>688496</v>
+        <v>692629</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6781767192746534</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6467864802269697</v>
+        <v>0.6482591219792837</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7064083075238606</v>
+        <v>0.7106486620776552</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1064</v>
@@ -1943,19 +1943,19 @@
         <v>1140807</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1115409</v>
+        <v>1113279</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1165253</v>
+        <v>1165185</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8527506261210001</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8337655799358908</v>
+        <v>0.8321730946734633</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8710239021611116</v>
+        <v>0.8709732417731653</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1675</v>
@@ -1964,19 +1964,19 @@
         <v>1801787</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1758749</v>
+        <v>1760705</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1842480</v>
+        <v>1844466</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.779171518888673</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7605599240701172</v>
+        <v>0.7614055412233348</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.796768675898085</v>
+        <v>0.7976274494293668</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>789570</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>744186</v>
+        <v>741559</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>835478</v>
+        <v>831931</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4022410601199001</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3791205388320433</v>
+        <v>0.3777819264391846</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4256283880239901</v>
+        <v>0.4238214302880028</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>574</v>
@@ -2089,19 +2089,19 @@
         <v>625215</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>584491</v>
+        <v>586164</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>666010</v>
+        <v>667980</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3560815205067542</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.332887783643754</v>
+        <v>0.3338403657142604</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3793151977159939</v>
+        <v>0.3804376112379663</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1317</v>
@@ -2110,19 +2110,19 @@
         <v>1414785</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1346728</v>
+        <v>1357562</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1472247</v>
+        <v>1473482</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.380446665126262</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3621454366726864</v>
+        <v>0.3650588828257513</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3958984564298201</v>
+        <v>0.3962306165916531</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1173358</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1127450</v>
+        <v>1130997</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1218742</v>
+        <v>1221369</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5977589398800999</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5743716119760098</v>
+        <v>0.5761785697119971</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6208794611679566</v>
+        <v>0.622218073560815</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1059</v>
@@ -2160,19 +2160,19 @@
         <v>1130606</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1089811</v>
+        <v>1087841</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1171330</v>
+        <v>1169657</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6439184794932458</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6206848022840061</v>
+        <v>0.6195623887620337</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6671122163562461</v>
+        <v>0.6661596342857397</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2171</v>
@@ -2181,19 +2181,19 @@
         <v>2303963</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2246501</v>
+        <v>2245266</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2372020</v>
+        <v>2361186</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6195533348737381</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6041015435701795</v>
+        <v>0.6037693834083464</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6378545633273135</v>
+        <v>0.6349411171742483</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>155793</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133465</v>
+        <v>133301</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>178892</v>
+        <v>179949</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3237721771792543</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2773696736592237</v>
+        <v>0.2770280534576772</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3717764691542547</v>
+        <v>0.3739743966371036</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>124</v>
@@ -2306,19 +2306,19 @@
         <v>136616</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>115125</v>
+        <v>116932</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>157086</v>
+        <v>156952</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2978774955706271</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2510188405023075</v>
+        <v>0.2549586203724928</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3425113976039176</v>
+        <v>0.3422173976633063</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>265</v>
@@ -2327,19 +2327,19 @@
         <v>292409</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>262828</v>
+        <v>263214</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>322802</v>
+        <v>323316</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3111355015973098</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2796598736964714</v>
+        <v>0.2800710437072611</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3434750047557721</v>
+        <v>0.3440221571370504</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>325388</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>302289</v>
+        <v>301232</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>347716</v>
+        <v>347880</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6762278228207457</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6282235308457454</v>
+        <v>0.6260256033628964</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7226303263407764</v>
+        <v>0.7229719465423232</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>288</v>
@@ -2377,19 +2377,19 @@
         <v>322015</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>301545</v>
+        <v>301679</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>343506</v>
+        <v>341699</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7021225044293729</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6574886023960824</v>
+        <v>0.6577826023366939</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7489811594976926</v>
+        <v>0.7450413796275075</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>585</v>
@@ -2398,19 +2398,19 @@
         <v>647404</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>617011</v>
+        <v>616497</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>676985</v>
+        <v>676599</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6888644984026902</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6565249952442279</v>
+        <v>0.6559778428629495</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7203401263035285</v>
+        <v>0.7199289562927389</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1259026</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1201210</v>
+        <v>1201010</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1316825</v>
+        <v>1314943</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3682706560749353</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3513593239111516</v>
+        <v>0.3513007713654758</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3851770152839336</v>
+        <v>0.3846267272636121</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>881</v>
@@ -2523,19 +2523,19 @@
         <v>958821</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>903562</v>
+        <v>905246</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1011813</v>
+        <v>1019620</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2699194413522727</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2543634037025392</v>
+        <v>0.2548376109734255</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2848374741034976</v>
+        <v>0.2870351554173306</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2062</v>
@@ -2544,19 +2544,19 @@
         <v>2217847</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2142913</v>
+        <v>2132394</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2295008</v>
+        <v>2302233</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3181533262348051</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3074039155690931</v>
+        <v>0.3058950600091441</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.329222227825196</v>
+        <v>0.3302587042201949</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2159726</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2101927</v>
+        <v>2103809</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2217542</v>
+        <v>2217742</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6317293439250647</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6148229847160667</v>
+        <v>0.615373272736388</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6486406760888483</v>
+        <v>0.6486992286345242</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2411</v>
@@ -2594,19 +2594,19 @@
         <v>2593427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2540435</v>
+        <v>2532628</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2648686</v>
+        <v>2647002</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7300805586477274</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7151625258965022</v>
+        <v>0.7129648445826694</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7456365962974607</v>
+        <v>0.7451623890265745</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4431</v>
@@ -2615,19 +2615,19 @@
         <v>4753153</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4675992</v>
+        <v>4668767</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4828087</v>
+        <v>4838606</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6818466737651949</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6707777721748043</v>
+        <v>0.6697412957798051</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6925960844309075</v>
+        <v>0.6941049399908559</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>224410</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>197047</v>
+        <v>200530</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>250262</v>
+        <v>253308</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2978303684040278</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2615156578507868</v>
+        <v>0.266137336932314</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3321408720571735</v>
+        <v>0.3361827245501661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>132</v>
@@ -2979,19 +2979,19 @@
         <v>136215</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>117546</v>
+        <v>117122</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>160910</v>
+        <v>160561</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1372770793630216</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1184623380663552</v>
+        <v>0.1180346977617691</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.162163865432056</v>
+        <v>0.1618122596304441</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>348</v>
@@ -3000,19 +3000,19 @@
         <v>360625</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>327544</v>
+        <v>328467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>392965</v>
+        <v>394244</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2065734763502601</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1876240654266391</v>
+        <v>0.1881524600214491</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2250985429529621</v>
+        <v>0.2258309261071751</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>529072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>503220</v>
+        <v>500174</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>556435</v>
+        <v>552952</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7021696315959721</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6678591279428261</v>
+        <v>0.6638172754498339</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7384843421492121</v>
+        <v>0.7338626630676861</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>758</v>
@@ -3050,19 +3050,19 @@
         <v>856051</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>831356</v>
+        <v>831705</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>874720</v>
+        <v>875144</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8627229206369784</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8378361345679439</v>
+        <v>0.8381877403695557</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8815376619336447</v>
+        <v>0.8819653022382309</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1303</v>
@@ -3071,19 +3071,19 @@
         <v>1385123</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1352783</v>
+        <v>1351504</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1418204</v>
+        <v>1417281</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7934265236497399</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7749014570470381</v>
+        <v>0.7741690738928249</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8123759345733611</v>
+        <v>0.8118475399785509</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>804915</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>759013</v>
+        <v>759915</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>847988</v>
+        <v>846211</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3876519215156332</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3655455343934848</v>
+        <v>0.3659796224255033</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4083961473839411</v>
+        <v>0.4075406989831592</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>640</v>
@@ -3196,19 +3196,19 @@
         <v>660959</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>620158</v>
+        <v>613541</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>705590</v>
+        <v>702181</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3327781364185017</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3122359352221752</v>
+        <v>0.3089046091218206</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3552492315869193</v>
+        <v>0.3535328683336809</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1387</v>
@@ -3217,19 +3217,19 @@
         <v>1465873</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1403385</v>
+        <v>1408905</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1526569</v>
+        <v>1534458</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3608242105406521</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3454428147054853</v>
+        <v>0.3468016353187365</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3757644514728861</v>
+        <v>0.3777063341702579</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1271470</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1228397</v>
+        <v>1230174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1317372</v>
+        <v>1316470</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6123480784843668</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5916038526160589</v>
+        <v>0.5924593010168409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6344544656065153</v>
+        <v>0.6340203775744968</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1266</v>
@@ -3267,19 +3267,19 @@
         <v>1325225</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1280594</v>
+        <v>1284003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1366026</v>
+        <v>1372643</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6672218635814983</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6447507684130807</v>
+        <v>0.646467131666319</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6877640647778247</v>
+        <v>0.6910953908781794</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2471</v>
@@ -3288,19 +3288,19 @@
         <v>2596695</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2535999</v>
+        <v>2528110</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2659183</v>
+        <v>2653663</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6391757894593478</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6242355485271139</v>
+        <v>0.622293665829742</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6545571852945146</v>
+        <v>0.6531983646812632</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>136154</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114736</v>
+        <v>115109</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156864</v>
+        <v>158208</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2494510917914391</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2102116778429369</v>
+        <v>0.210893594030173</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2873948282670013</v>
+        <v>0.2898567392513663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -3413,19 +3413,19 @@
         <v>120452</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>100263</v>
+        <v>99052</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>141483</v>
+        <v>139296</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2197170377354564</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.182889949200152</v>
+        <v>0.180682317549394</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2580811543127944</v>
+        <v>0.2540906811147893</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>238</v>
@@ -3434,19 +3434,19 @@
         <v>256606</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>227591</v>
+        <v>231268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>285033</v>
+        <v>283763</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2345514721467219</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2080302704648873</v>
+        <v>0.2113915681342336</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2605353313237642</v>
+        <v>0.2593745296721305</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>409660</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>388950</v>
+        <v>387606</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>431078</v>
+        <v>430705</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7505489082085609</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7126051717329986</v>
+        <v>0.7101432607486337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7897883221570631</v>
+        <v>0.7891064059698261</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>408</v>
@@ -3484,19 +3484,19 @@
         <v>427761</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>406730</v>
+        <v>408917</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>447950</v>
+        <v>449161</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7802829622645435</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7419188456872052</v>
+        <v>0.7459093188852103</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.817110050799848</v>
+        <v>0.8193176824506059</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>787</v>
@@ -3505,19 +3505,19 @@
         <v>837421</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>808994</v>
+        <v>810264</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>866436</v>
+        <v>862759</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7654485278532781</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7394646686762357</v>
+        <v>0.7406254703278694</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7919697295351126</v>
+        <v>0.7886084318657665</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1165478</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1115822</v>
+        <v>1111311</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1226391</v>
+        <v>1224387</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3452572426242826</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3305471317985527</v>
+        <v>0.3292109810369103</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3633017312340767</v>
+        <v>0.3627081525995531</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>889</v>
@@ -3630,19 +3630,19 @@
         <v>917625</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>867058</v>
+        <v>868712</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>969321</v>
+        <v>966633</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2601966088962014</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2458580491156984</v>
+        <v>0.2463268590610563</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2748550545234285</v>
+        <v>0.2740929514469813</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1973</v>
@@ -3651,19 +3651,19 @@
         <v>2083104</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2012492</v>
+        <v>2009869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2165349</v>
+        <v>2164057</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3017966246588439</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2915664501049707</v>
+        <v>0.2911864749765957</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3137122187532719</v>
+        <v>0.3135249312692941</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2210203</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2149290</v>
+        <v>2151294</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2259859</v>
+        <v>2264370</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6547427573757174</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6366982687659234</v>
+        <v>0.6372918474004469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6694528682014474</v>
+        <v>0.6707890189630896</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2432</v>
@@ -3701,19 +3701,19 @@
         <v>2609037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2557341</v>
+        <v>2560029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2659604</v>
+        <v>2657950</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7398033911037986</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7251449454765718</v>
+        <v>0.7259070485530187</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7541419508843022</v>
+        <v>0.7536731409389437</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4561</v>
@@ -3722,19 +3722,19 @@
         <v>4819239</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4736994</v>
+        <v>4738286</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4889851</v>
+        <v>4892474</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6982033753411561</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6862877812467282</v>
+        <v>0.6864750687307057</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7084335498950293</v>
+        <v>0.7088135250234043</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>152480</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130980</v>
+        <v>131803</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>173097</v>
+        <v>174938</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2635657588999548</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2264011406395303</v>
+        <v>0.2278243880147018</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2992020250135302</v>
+        <v>0.3023837314077495</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>135</v>
@@ -4086,19 +4086,19 @@
         <v>86165</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73448</v>
+        <v>72934</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101123</v>
+        <v>101050</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1048183479538166</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08934806781761893</v>
+        <v>0.08872338761299961</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1230152215840337</v>
+        <v>0.122926201028029</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>297</v>
@@ -4107,19 +4107,19 @@
         <v>238645</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>216455</v>
+        <v>214853</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>268146</v>
+        <v>264984</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1703918109559702</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1545483277718042</v>
+        <v>0.1534041843909758</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1914550473779357</v>
+        <v>0.1891977056037652</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>426049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>405432</v>
+        <v>403591</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>447549</v>
+        <v>446726</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7364342411000452</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7007979749864701</v>
+        <v>0.6976162685922507</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7735988593604698</v>
+        <v>0.7721756119852984</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1292</v>
@@ -4157,19 +4157,19 @@
         <v>735873</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>720915</v>
+        <v>720988</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>748590</v>
+        <v>749104</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8951816520461835</v>
+        <v>0.8951816520461834</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8769847784159661</v>
+        <v>0.8770737989719711</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9106519321823812</v>
+        <v>0.9112766123870004</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1821</v>
@@ -4178,19 +4178,19 @@
         <v>1161922</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1132421</v>
+        <v>1135583</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1184112</v>
+        <v>1185714</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8296081890440297</v>
+        <v>0.8296081890440298</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8085449526220644</v>
+        <v>0.8108022943962349</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8454516722281958</v>
+        <v>0.8465958156090244</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>638318</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>593153</v>
+        <v>591707</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>686912</v>
+        <v>688124</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2864542573832702</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2661855066346876</v>
+        <v>0.2655368546815952</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3082614328824103</v>
+        <v>0.3088050506466344</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>658</v>
@@ -4303,19 +4303,19 @@
         <v>502270</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>470923</v>
+        <v>463514</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>541580</v>
+        <v>537571</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2314626744134533</v>
+        <v>0.2314626744134534</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2170168078341053</v>
+        <v>0.2136024739370909</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2495779639927022</v>
+        <v>0.2477303117435954</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1202</v>
@@ -4324,19 +4324,19 @@
         <v>1140589</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1080424</v>
+        <v>1083338</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1204999</v>
+        <v>1205667</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2593232917801712</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2456442244029363</v>
+        <v>0.2463069314983239</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2739676212786727</v>
+        <v>0.2741195638710469</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1590025</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1541431</v>
+        <v>1540219</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1635190</v>
+        <v>1636636</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7135457426167298</v>
+        <v>0.7135457426167297</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6917385671175897</v>
+        <v>0.691194949353366</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7338144933653127</v>
+        <v>0.7344631453184048</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2261</v>
@@ -4374,19 +4374,19 @@
         <v>1667714</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1628404</v>
+        <v>1632413</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1699061</v>
+        <v>1706470</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7685373255865466</v>
+        <v>0.7685373255865467</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7504220360072975</v>
+        <v>0.7522696882564047</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7829831921658947</v>
+        <v>0.786397526062909</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3707</v>
@@ -4395,19 +4395,19 @@
         <v>3257738</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3193328</v>
+        <v>3192660</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3317903</v>
+        <v>3314989</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7406767082198287</v>
+        <v>0.7406767082198289</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7260323787213276</v>
+        <v>0.7258804361289533</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7543557755970635</v>
+        <v>0.7536930685016763</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>110282</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92262</v>
+        <v>90030</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130625</v>
+        <v>131704</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1549801478636311</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.129656890609422</v>
+        <v>0.1265204650483668</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1835687570350687</v>
+        <v>0.1850846214652055</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>157</v>
@@ -4520,19 +4520,19 @@
         <v>117389</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>100610</v>
+        <v>99214</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>136263</v>
+        <v>135544</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1602765802878128</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1373673774746687</v>
+        <v>0.1354616810443782</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1860470053000232</v>
+        <v>0.1850647454746181</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>261</v>
@@ -4541,19 +4541,19 @@
         <v>227671</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>200233</v>
+        <v>201387</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>255855</v>
+        <v>257103</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1576665587777414</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1386657203992699</v>
+        <v>0.1394642993007555</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1771848772584022</v>
+        <v>0.178049276710351</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>601305</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>580962</v>
+        <v>579883</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>619325</v>
+        <v>621557</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.845019852136369</v>
+        <v>0.8450198521363688</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8164312429649314</v>
+        <v>0.8149153785347945</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8703431093905778</v>
+        <v>0.873479534951633</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>846</v>
@@ -4591,19 +4591,19 @@
         <v>615025</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>596151</v>
+        <v>596870</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>631804</v>
+        <v>633200</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8397234197121872</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8139529946999768</v>
+        <v>0.814935254525382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8626326225253312</v>
+        <v>0.8645383189556217</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1423</v>
@@ -4612,19 +4612,19 @@
         <v>1216330</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1188146</v>
+        <v>1186898</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1243768</v>
+        <v>1242614</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8423334412222584</v>
+        <v>0.8423334412222585</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.822815122741598</v>
+        <v>0.8219507232896489</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8613342796007299</v>
+        <v>0.8605357006992445</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>901081</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>839095</v>
+        <v>845430</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>957922</v>
+        <v>961528</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2561009315515644</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.238483593468486</v>
+        <v>0.2402840662821163</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2722561659860424</v>
+        <v>0.2732809913135259</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>950</v>
@@ -4737,19 +4737,19 @@
         <v>705824</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>663903</v>
+        <v>662653</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>748096</v>
+        <v>747912</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1895115930667039</v>
+        <v>0.189511593066704</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1782559355100237</v>
+        <v>0.1779204204718381</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2008617363751275</v>
+        <v>0.2008121266595436</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1760</v>
@@ -4758,19 +4758,19 @@
         <v>1606904</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1540170</v>
+        <v>1535420</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1687939</v>
+        <v>1681642</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2218594162230827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2126455908651232</v>
+        <v>0.2119898175037659</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.233047545234044</v>
+        <v>0.2321781178195084</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2617378</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2560537</v>
+        <v>2556931</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2679364</v>
+        <v>2673029</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7438990684484356</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7277438340139576</v>
+        <v>0.7267190086864739</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.761516406531514</v>
+        <v>0.7597159337178837</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4399</v>
@@ -4808,19 +4808,19 @@
         <v>3018611</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2976339</v>
+        <v>2976523</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3060532</v>
+        <v>3061782</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.810488406933296</v>
+        <v>0.8104884069332962</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7991382636248725</v>
+        <v>0.7991878733404567</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8217440644899762</v>
+        <v>0.822079579528162</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6951</v>
@@ -4829,19 +4829,19 @@
         <v>5635991</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5554956</v>
+        <v>5561253</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5702725</v>
+        <v>5707475</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7781405837769174</v>
+        <v>0.7781405837769172</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.766952454765956</v>
+        <v>0.7678218821804915</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7873544091348769</v>
+        <v>0.7880101824962343</v>
       </c>
     </row>
     <row r="15">
